--- a/biology/Botanique/Barbera_d'Alba_(DOC)/Barbera_d'Alba_(DOC).xlsx
+++ b/biology/Botanique/Barbera_d'Alba_(DOC)/Barbera_d'Alba_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbera_d%27Alba_(DOC)</t>
+          <t>Barbera_d'Alba_(DOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Barbera d'Alba est un vin italien de la région Piémont doté d'une appellation DOC depuis le 27 mai 1970. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbera_d%27Alba_(DOC)</t>
+          <t>Barbera_d'Alba_(DOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Coni dans les communes de Alba, Albaretto della Torre, Barbaresco, Barolo, Borgomale, Camo, Canale, Castagnito, Castellinaldo, Castiglione Falletto, Castiglione Tinella, Castino, Corneliano d'Alba, Cossano Belbo, Diano d'Alba, Govone, Grinzane Cavour, Guarene, Magliano Alfieri, Mango, Monforte d'Alba, Montelupo Albese, Monticello d'Alba, Neive, Neviglie, Novello, Perletto, Piobesi d'Alba, Priocca, Rocchetta Belbo, Roddi, Roddino, Rodello, Santo Stefano Belbo, Santa Vittoria d'Alba, Serralunga d'Alba, Sinio, Treiso, Trezzo Tinella, Verduno, Vezza d'Alba ainsi qu'en partie les vignobles des communes Baldissero d'Alba, Bra, Cortemilia, Cherasco, La Morra, Monchiero, Montà, Montaldo Roero, Monteu Roero, Narzole, Pocapaglia, Santo Stefano Roero et Sommariva Perno. (+/-2523 hectares de vignobles avec une production de 44.060 hl/an)
 Le vin rouge du Barbera répond à un cahier des charges moins exigeant que le Barbera d'Alba superiore, essentiellement en relation avec le vieillissement et le titre alcoolique.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbera_d%27Alba_(DOC)</t>
+          <t>Barbera_d'Alba_(DOC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis avec des reflets grenat
 odeur: vineux, intense et caractéristique
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barbera_d%27Alba_(DOC)</t>
+          <t>Barbera_d'Alba_(DOC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barbera_d%27Alba_(DOC)</t>
+          <t>Barbera_d'Alba_(DOC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plats de pâtes, poulet, viandes grillées et fromages.
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Barbera_d%27Alba_(DOC)</t>
+          <t>Barbera_d'Alba_(DOC)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
